--- a/Code/Results/Cases/Case_6_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.431091545444701</v>
+        <v>3.431091545444644</v>
       </c>
       <c r="C2">
-        <v>0.4720838580106772</v>
+        <v>0.4720838580109898</v>
       </c>
       <c r="D2">
-        <v>0.3696987719228559</v>
+        <v>0.3696987719229696</v>
       </c>
       <c r="E2">
-        <v>0.03457125058891641</v>
+        <v>0.03457125058885069</v>
       </c>
       <c r="F2">
-        <v>6.630932718943939</v>
+        <v>6.630932718944138</v>
       </c>
       <c r="G2">
-        <v>0.0007979867681652635</v>
+        <v>0.0007979867681451751</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.324698197791264</v>
+        <v>0.3246981977912071</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960339364792333</v>
+        <v>2.960339364792446</v>
       </c>
       <c r="C3">
-        <v>0.4043208534074267</v>
+        <v>0.4043208534079952</v>
       </c>
       <c r="D3">
-        <v>0.3333822111477218</v>
+        <v>0.3333822111480913</v>
       </c>
       <c r="E3">
-        <v>0.03292324760307963</v>
+        <v>0.03292324760322174</v>
       </c>
       <c r="F3">
         <v>5.85629235476452</v>
       </c>
       <c r="G3">
-        <v>0.0008103742514005141</v>
+        <v>0.0008103742515224704</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2838699356659617</v>
+        <v>0.2838699356659902</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680384624173087</v>
+        <v>2.6803846241732</v>
       </c>
       <c r="C4">
-        <v>0.3638323374329673</v>
+        <v>0.3638323374329104</v>
       </c>
       <c r="D4">
-        <v>0.3117381889917397</v>
+        <v>0.3117381889916828</v>
       </c>
       <c r="E4">
-        <v>0.03195054810289655</v>
+        <v>0.03195054810288944</v>
       </c>
       <c r="F4">
-        <v>5.394444495076868</v>
+        <v>5.394444495076897</v>
       </c>
       <c r="G4">
-        <v>0.0008181172084977659</v>
+        <v>0.0008181172084936094</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2595963230419187</v>
+        <v>0.2595963230417766</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568270394588183</v>
+        <v>2.568270394588012</v>
       </c>
       <c r="C5">
-        <v>0.3475638348378709</v>
+        <v>0.3475638348384962</v>
       </c>
       <c r="D5">
-        <v>0.3030565159887857</v>
+        <v>0.3030565159889989</v>
       </c>
       <c r="E5">
-        <v>0.03156271001517652</v>
+        <v>0.03156271001520494</v>
       </c>
       <c r="F5">
-        <v>5.209192478942839</v>
+        <v>5.209192478942782</v>
       </c>
       <c r="G5">
-        <v>0.0008213112305653698</v>
+        <v>0.0008213112307154195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2498782481231956</v>
+        <v>0.2498782481230393</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549764343796767</v>
+        <v>2.54976434379671</v>
       </c>
       <c r="C6">
-        <v>0.3448750561598217</v>
+        <v>0.3448750561598501</v>
       </c>
       <c r="D6">
-        <v>0.3016225844813363</v>
+        <v>0.3016225844813931</v>
       </c>
       <c r="E6">
-        <v>0.03149879055353111</v>
+        <v>0.03149879055354887</v>
       </c>
       <c r="F6">
-        <v>5.178596128785102</v>
+        <v>5.178596128785045</v>
       </c>
       <c r="G6">
-        <v>0.0008218440488754659</v>
+        <v>0.0008218440487374898</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.678865027833126</v>
+        <v>2.67886502783324</v>
       </c>
       <c r="C7">
-        <v>0.3636120617251493</v>
+        <v>0.3636120617255472</v>
       </c>
       <c r="D7">
-        <v>0.3116205767424418</v>
+        <v>0.3116205767425839</v>
       </c>
       <c r="E7">
-        <v>0.03194528460143786</v>
+        <v>0.03194528460132595</v>
       </c>
       <c r="F7">
-        <v>5.391934791552387</v>
+        <v>5.391934791552501</v>
       </c>
       <c r="G7">
-        <v>0.0008181601221190121</v>
+        <v>0.000818160122142361</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2594645912828639</v>
+        <v>0.2594645912828781</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.266687060543006</v>
+        <v>3.266687060543234</v>
       </c>
       <c r="C8">
-        <v>0.448454702370725</v>
+        <v>0.4484547023706682</v>
       </c>
       <c r="D8">
-        <v>0.3570242533034502</v>
+        <v>0.3570242533028818</v>
       </c>
       <c r="E8">
-        <v>0.03399404874415879</v>
+        <v>0.03399404874414635</v>
       </c>
       <c r="F8">
-        <v>6.360648380997958</v>
+        <v>6.360648380997873</v>
       </c>
       <c r="G8">
-        <v>0.0008022322614888234</v>
+        <v>0.0008022322616891117</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3104387348333262</v>
+        <v>0.3104387348331841</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.508182504406875</v>
+        <v>4.508182504406761</v>
       </c>
       <c r="C9">
-        <v>0.6263785185948052</v>
+        <v>0.6263785185944073</v>
       </c>
       <c r="D9">
-        <v>0.4526235930315181</v>
+        <v>0.4526235930314044</v>
       </c>
       <c r="E9">
-        <v>0.03839140067376157</v>
+        <v>0.0383914006738344</v>
       </c>
       <c r="F9">
         <v>8.396472535864234</v>
       </c>
       <c r="G9">
-        <v>0.0007718620853844688</v>
+        <v>0.0007718620853922814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4180888102210361</v>
+        <v>0.418088810221235</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.502363867736676</v>
+        <v>5.50236386773679</v>
       </c>
       <c r="C10">
         <v>0.7686712537954179</v>
       </c>
       <c r="D10">
-        <v>0.5291436967918344</v>
+        <v>0.5291436967917775</v>
       </c>
       <c r="E10">
-        <v>0.04196901202334757</v>
+        <v>0.04196901202340086</v>
       </c>
       <c r="F10">
         <v>10.01984744699328</v>
       </c>
       <c r="G10">
-        <v>0.000749705840593316</v>
+        <v>0.0007497058406043302</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5041690008845165</v>
+        <v>0.5041690008845023</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.980449192135666</v>
+        <v>5.980449192135438</v>
       </c>
       <c r="C11">
-        <v>0.8372322626410664</v>
+        <v>0.8372322626406685</v>
       </c>
       <c r="D11">
-        <v>0.5659676022852693</v>
+        <v>0.5659676022850704</v>
       </c>
       <c r="E11">
-        <v>0.04370492850334173</v>
+        <v>0.04370492850334529</v>
       </c>
       <c r="F11">
-        <v>10.79874318235034</v>
+        <v>10.79874318235028</v>
       </c>
       <c r="G11">
-        <v>0.000739555585706423</v>
+        <v>0.000739555585834629</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5454998201468868</v>
+        <v>0.5454998201473131</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.166051238037369</v>
+        <v>6.166051238037198</v>
       </c>
       <c r="C12">
-        <v>0.8638872161359075</v>
+        <v>0.8638872161363622</v>
       </c>
       <c r="D12">
-        <v>0.5802702302951559</v>
+        <v>0.5802702302954685</v>
       </c>
       <c r="E12">
-        <v>0.04438139315433887</v>
+        <v>0.04438139315431044</v>
       </c>
       <c r="F12">
-        <v>11.10084024994899</v>
+        <v>11.10084024994887</v>
       </c>
       <c r="G12">
-        <v>0.0007356906337016208</v>
+        <v>0.0007356906337101034</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5615320865434228</v>
+        <v>0.561532086543437</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.125860078395363</v>
+        <v>6.125860078395817</v>
       </c>
       <c r="C13">
-        <v>0.8581131863544442</v>
+        <v>0.8581131863548421</v>
       </c>
       <c r="D13">
-        <v>0.5771727160820035</v>
+        <v>0.5771727160819466</v>
       </c>
       <c r="E13">
-        <v>0.04423478975112438</v>
+        <v>0.04423478975107997</v>
       </c>
       <c r="F13">
-        <v>11.03543598464978</v>
+        <v>11.03543598464972</v>
       </c>
       <c r="G13">
-        <v>0.0007365241681687293</v>
+        <v>0.0007365241682667986</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5580610395705463</v>
+        <v>0.5580610395705747</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.995621828429648</v>
+        <v>5.995621828429819</v>
       </c>
       <c r="C14">
-        <v>0.8394103757084679</v>
+        <v>0.8394103757088942</v>
       </c>
       <c r="D14">
-        <v>0.5671366622185587</v>
+        <v>0.5671366622180756</v>
       </c>
       <c r="E14">
-        <v>0.04376017564492862</v>
+        <v>0.04376017564485224</v>
       </c>
       <c r="F14">
-        <v>10.82344497826688</v>
+        <v>10.8234449782671</v>
       </c>
       <c r="G14">
-        <v>0.0007392381119704899</v>
+        <v>0.0007392381119766891</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5468107171449219</v>
+        <v>0.546810717145263</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.916469564291333</v>
+        <v>5.916469564291219</v>
       </c>
       <c r="C15">
-        <v>0.8280492961488903</v>
+        <v>0.8280492961488619</v>
       </c>
       <c r="D15">
-        <v>0.5610382300056358</v>
+        <v>0.5610382300058063</v>
       </c>
       <c r="E15">
-        <v>0.04347206749904586</v>
+        <v>0.04347206749906718</v>
       </c>
       <c r="F15">
-        <v>10.69456957594713</v>
+        <v>10.6945695759473</v>
       </c>
       <c r="G15">
-        <v>0.0007408973424515321</v>
+        <v>0.0007408973426674968</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5399715069707867</v>
+        <v>0.5399715069707014</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>5.471707890944913</v>
       </c>
       <c r="C16">
-        <v>0.7642790940390967</v>
+        <v>0.7642790940382156</v>
       </c>
       <c r="D16">
-        <v>0.5267832338566336</v>
+        <v>0.5267832338571168</v>
       </c>
       <c r="E16">
-        <v>0.04185803120647513</v>
+        <v>0.04185803120647691</v>
       </c>
       <c r="F16">
-        <v>9.969865738612611</v>
+        <v>9.969865738612583</v>
       </c>
       <c r="G16">
-        <v>0.0007503668599871878</v>
+        <v>0.00075036685998723</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5015172032695006</v>
+        <v>0.5015172032696142</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.206023456486093</v>
+        <v>5.206023456485525</v>
       </c>
       <c r="C17">
-        <v>0.7262303643736914</v>
+        <v>0.726230364372384</v>
       </c>
       <c r="D17">
-        <v>0.5063292057355397</v>
+        <v>0.5063292057355682</v>
       </c>
       <c r="E17">
-        <v>0.04089791623422023</v>
+        <v>0.04089791623418471</v>
       </c>
       <c r="F17">
-        <v>9.536498565800855</v>
+        <v>9.53649856580077</v>
       </c>
       <c r="G17">
-        <v>0.0007561507144981938</v>
+        <v>0.0007561507146266318</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4785277065733879</v>
+        <v>0.4785277065732885</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.05557962397603</v>
+        <v>5.0555796239762</v>
       </c>
       <c r="C18">
-        <v>0.704696258799288</v>
+        <v>0.7046962587997712</v>
       </c>
       <c r="D18">
-        <v>0.4947493547042257</v>
+        <v>0.4947493547049362</v>
       </c>
       <c r="E18">
-        <v>0.04035564077287646</v>
+        <v>0.04035564077301323</v>
       </c>
       <c r="F18">
-        <v>9.290946821376281</v>
+        <v>9.290946821376252</v>
       </c>
       <c r="G18">
-        <v>0.0007594715066989115</v>
+        <v>0.0007594715065904826</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4655043796285838</v>
+        <v>0.4655043796284559</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.005026190532988</v>
+        <v>5.005026190533044</v>
       </c>
       <c r="C19">
-        <v>0.6974615787439404</v>
+        <v>0.6974615787444236</v>
       </c>
       <c r="D19">
-        <v>0.4908584922089574</v>
+        <v>0.4908584922092416</v>
       </c>
       <c r="E19">
-        <v>0.04017365078413704</v>
+        <v>0.04017365078421697</v>
       </c>
       <c r="F19">
-        <v>9.208408136718106</v>
+        <v>9.20840813671802</v>
       </c>
       <c r="G19">
-        <v>0.0007605951504935311</v>
+        <v>0.0007605951502845077</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4611273237789817</v>
+        <v>0.4611273237787827</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.234055086508363</v>
+        <v>5.234055086508704</v>
       </c>
       <c r="C20">
-        <v>0.7302435161486187</v>
+        <v>0.7302435161490735</v>
       </c>
       <c r="D20">
-        <v>0.5084869992089125</v>
+        <v>0.5084869992088557</v>
       </c>
       <c r="E20">
-        <v>0.04099906852901292</v>
+        <v>0.04099906852887436</v>
       </c>
       <c r="F20">
-        <v>9.582238536422238</v>
+        <v>9.582238536422295</v>
       </c>
       <c r="G20">
-        <v>0.0007555356995341783</v>
+        <v>0.0007555356994065043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4809538650615082</v>
+        <v>0.4809538650616076</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.033744456367742</v>
+        <v>6.033744456367799</v>
       </c>
       <c r="C21">
-        <v>0.8448837596969838</v>
+        <v>0.8448837596969554</v>
       </c>
       <c r="D21">
         <v>0.5700741509503473</v>
       </c>
       <c r="E21">
-        <v>0.04389903063602851</v>
+        <v>0.04389903063613687</v>
       </c>
       <c r="F21">
         <v>10.88550583400433</v>
       </c>
       <c r="G21">
-        <v>0.0007384416382132218</v>
+        <v>0.0007384416380858954</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5501042412347061</v>
+        <v>0.5501042412348198</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.583518241815682</v>
+        <v>6.583518241815796</v>
       </c>
       <c r="C22">
-        <v>0.9239353952516183</v>
+        <v>0.9239353952515899</v>
       </c>
       <c r="D22">
-        <v>0.6124565344618134</v>
+        <v>0.6124565344615007</v>
       </c>
       <c r="E22">
-        <v>0.04590797515079892</v>
+        <v>0.04590797515084155</v>
       </c>
       <c r="F22">
-        <v>11.77976820150815</v>
+        <v>11.77976820150826</v>
       </c>
       <c r="G22">
-        <v>0.0007271386805854275</v>
+        <v>0.0007271386806843316</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5975635143820739</v>
+        <v>0.5975635143820455</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.287278360120695</v>
+        <v>6.287278360120752</v>
       </c>
       <c r="C23">
-        <v>0.8813103805293281</v>
+        <v>0.8813103805285039</v>
       </c>
       <c r="D23">
-        <v>0.5896143755322782</v>
+        <v>0.5896143755321646</v>
       </c>
       <c r="E23">
-        <v>0.04482398079058925</v>
+        <v>0.04482398079061412</v>
       </c>
       <c r="F23">
-        <v>11.29807258623384</v>
+        <v>11.29807258623367</v>
       </c>
       <c r="G23">
-        <v>0.0007331875829277456</v>
+        <v>0.000733187582782594</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5719994264956938</v>
+        <v>0.5719994264957364</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.221374878727318</v>
+        <v>5.221374878727033</v>
       </c>
       <c r="C24">
-        <v>0.7284281195094877</v>
+        <v>0.7284281195086919</v>
       </c>
       <c r="D24">
-        <v>0.5075109068249049</v>
+        <v>0.5075109068247059</v>
       </c>
       <c r="E24">
-        <v>0.04095330759461291</v>
+        <v>0.04095330759458982</v>
       </c>
       <c r="F24">
-        <v>9.561548389210088</v>
+        <v>9.561548389210003</v>
       </c>
       <c r="G24">
-        <v>0.0007558137608422739</v>
+        <v>0.0007558137608540354</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4798564006490551</v>
+        <v>0.4798564006491972</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.160234022725831</v>
+        <v>4.160234022725319</v>
       </c>
       <c r="C25">
         <v>0.5765920289094026</v>
       </c>
       <c r="D25">
-        <v>0.4258468636910493</v>
+        <v>0.4258468636914756</v>
       </c>
       <c r="E25">
-        <v>0.03715046589649695</v>
+        <v>0.03715046589648452</v>
       </c>
       <c r="F25">
-        <v>7.827000812102881</v>
+        <v>7.827000812102938</v>
       </c>
       <c r="G25">
-        <v>0.0007800199294715135</v>
+        <v>0.0007800199294693061</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3879294792234589</v>
+        <v>0.3879294792231462</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.431091545444644</v>
+        <v>3.424579591429051</v>
       </c>
       <c r="C2">
-        <v>0.4720838580109898</v>
+        <v>0.6778937656191033</v>
       </c>
       <c r="D2">
-        <v>0.3696987719229696</v>
+        <v>0.03406646444391725</v>
       </c>
       <c r="E2">
-        <v>0.03457125058885069</v>
+        <v>0.03170476343438988</v>
       </c>
       <c r="F2">
-        <v>6.630932718944138</v>
+        <v>0.8292145714928125</v>
       </c>
       <c r="G2">
-        <v>0.0007979867681451751</v>
+        <v>0.7499548865048808</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0006591964342348433</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4975871586267857</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4317884239759593</v>
       </c>
       <c r="L2">
-        <v>0.3246981977912071</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3443634282443071</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960339364792446</v>
+        <v>2.978482358648478</v>
       </c>
       <c r="C3">
-        <v>0.4043208534079952</v>
+        <v>0.5987215279224927</v>
       </c>
       <c r="D3">
-        <v>0.3333822111480913</v>
+        <v>0.03275787119195783</v>
       </c>
       <c r="E3">
-        <v>0.03292324760322174</v>
+        <v>0.03195405316309152</v>
       </c>
       <c r="F3">
-        <v>5.85629235476452</v>
+        <v>0.7638110224396684</v>
       </c>
       <c r="G3">
-        <v>0.0008103742515224704</v>
+        <v>0.6911650099901863</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004668912507073131</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4775111411087636</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4261839479446188</v>
       </c>
       <c r="L3">
-        <v>0.2838699356659902</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3021737296633802</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.6803846241732</v>
+        <v>2.705062824404934</v>
       </c>
       <c r="C4">
-        <v>0.3638323374329104</v>
+        <v>0.5504986888379335</v>
       </c>
       <c r="D4">
-        <v>0.3117381889916828</v>
+        <v>0.03197043131095612</v>
       </c>
       <c r="E4">
-        <v>0.03195054810288944</v>
+        <v>0.03213522846779249</v>
       </c>
       <c r="F4">
-        <v>5.394444495076897</v>
+        <v>0.7248540104867729</v>
       </c>
       <c r="G4">
-        <v>0.0008181172084936094</v>
+        <v>0.6562355515651745</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008610758548890374</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4658920207358221</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4234044813563962</v>
       </c>
       <c r="L4">
-        <v>0.2595963230417766</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2766396168803169</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568270394588012</v>
+        <v>2.593697533815146</v>
       </c>
       <c r="C5">
-        <v>0.3475638348384962</v>
+        <v>0.531720181726314</v>
       </c>
       <c r="D5">
-        <v>0.3030565159889989</v>
+        <v>0.03170780909711013</v>
       </c>
       <c r="E5">
-        <v>0.03156271001520494</v>
+        <v>0.03218721626691412</v>
       </c>
       <c r="F5">
-        <v>5.209192478942782</v>
+        <v>0.7080320325118237</v>
       </c>
       <c r="G5">
-        <v>0.0008213112307154195</v>
+        <v>0.6409094523454684</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001212692184997088</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4606260178172477</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4215541392220956</v>
       </c>
       <c r="L5">
-        <v>0.2498782481230393</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.26641208085627</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54976434379671</v>
+        <v>2.575178174393727</v>
       </c>
       <c r="C6">
-        <v>0.3448750561598501</v>
+        <v>0.5295742838503372</v>
       </c>
       <c r="D6">
-        <v>0.3016225844813931</v>
+        <v>0.031731505209315</v>
       </c>
       <c r="E6">
-        <v>0.03149879055354887</v>
+        <v>0.03216120793427635</v>
       </c>
       <c r="F6">
-        <v>5.178596128785045</v>
+        <v>0.703760263667057</v>
       </c>
       <c r="G6">
-        <v>0.0008218440487374898</v>
+        <v>0.636719371634598</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001371806421121669</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4589096606180902</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4201904174013436</v>
       </c>
       <c r="L6">
-        <v>0.2482743431852157</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2648330634941374</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.67886502783324</v>
+        <v>2.703470538359795</v>
       </c>
       <c r="C7">
-        <v>0.3636120617255472</v>
+        <v>0.5528964188854104</v>
       </c>
       <c r="D7">
-        <v>0.3116205767425839</v>
+        <v>0.03215114892929805</v>
       </c>
       <c r="E7">
-        <v>0.03194528460132595</v>
+        <v>0.03204032114787569</v>
       </c>
       <c r="F7">
-        <v>5.391934791552501</v>
+        <v>0.7205382490706711</v>
       </c>
       <c r="G7">
-        <v>0.000818160122142361</v>
+        <v>0.6514848890963805</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00110288085818766</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.463493040219447</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4204673729649251</v>
       </c>
       <c r="L7">
-        <v>0.2594645912828781</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2768140213794936</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.266687060543234</v>
+        <v>3.270493974712224</v>
       </c>
       <c r="C8">
-        <v>0.4484547023706682</v>
+        <v>0.6540578575413747</v>
       </c>
       <c r="D8">
-        <v>0.3570242533028818</v>
+        <v>0.03386164376045286</v>
       </c>
       <c r="E8">
-        <v>0.03399404874414635</v>
+        <v>0.03165919009805851</v>
       </c>
       <c r="F8">
-        <v>6.360648380997873</v>
+        <v>0.8009685673878977</v>
       </c>
       <c r="G8">
-        <v>0.0008022322616891117</v>
+        <v>0.723391151121163</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007529647471509193</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4874293387249224</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4258648119436046</v>
       </c>
       <c r="L8">
-        <v>0.3104387348331841</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3301488020388064</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.508182504406761</v>
+        <v>4.388565989796177</v>
       </c>
       <c r="C9">
-        <v>0.6263785185944073</v>
+        <v>0.8513941726277494</v>
       </c>
       <c r="D9">
-        <v>0.4526235930314044</v>
+        <v>0.03701605221431237</v>
       </c>
       <c r="E9">
-        <v>0.0383914006738344</v>
+        <v>0.0313135924730279</v>
       </c>
       <c r="F9">
-        <v>8.396472535864234</v>
+        <v>0.9768430213880919</v>
       </c>
       <c r="G9">
-        <v>0.0007718620853922814</v>
+        <v>0.8831379134168742</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004205461219671136</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5447422435674412</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4474351167093573</v>
       </c>
       <c r="L9">
-        <v>0.418088810221235</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4375439680584918</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.50236386773679</v>
+        <v>5.216765348811066</v>
       </c>
       <c r="C10">
-        <v>0.7686712537954179</v>
+        <v>1.001104917096086</v>
       </c>
       <c r="D10">
-        <v>0.5291436967917775</v>
+        <v>0.03953921991427123</v>
       </c>
       <c r="E10">
-        <v>0.04196901202340086</v>
+        <v>0.03116897223439707</v>
       </c>
       <c r="F10">
-        <v>10.01984744699328</v>
+        <v>1.112503220554359</v>
       </c>
       <c r="G10">
-        <v>0.0007497058406043302</v>
+        <v>1.006631512898096</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01018083249022528</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5903701329084754</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4661809286544454</v>
       </c>
       <c r="L10">
-        <v>0.5041690008845023</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.519299842433</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.980449192135438</v>
+        <v>5.595510845820911</v>
       </c>
       <c r="C11">
-        <v>0.8372322626406685</v>
+        <v>1.074770489419507</v>
       </c>
       <c r="D11">
-        <v>0.5659676022850704</v>
+        <v>0.04105111806143924</v>
       </c>
       <c r="E11">
-        <v>0.04370492850334529</v>
+        <v>0.03098821729864909</v>
       </c>
       <c r="F11">
-        <v>10.79874318235028</v>
+        <v>1.16974361675949</v>
       </c>
       <c r="G11">
-        <v>0.000739555585834629</v>
+        <v>1.057583991987741</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01407172029609871</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6085474289233588</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.471131103547151</v>
       </c>
       <c r="L11">
-        <v>0.5454998201473131</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.557749709526945</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.166051238037198</v>
+        <v>5.739476160795789</v>
       </c>
       <c r="C12">
-        <v>0.8638872161363622</v>
+        <v>1.100416126125623</v>
       </c>
       <c r="D12">
-        <v>0.5802702302954685</v>
+        <v>0.04145201095217033</v>
       </c>
       <c r="E12">
-        <v>0.04438139315431044</v>
+        <v>0.03100646048901901</v>
       </c>
       <c r="F12">
-        <v>11.10084024994887</v>
+        <v>1.195392393606909</v>
       </c>
       <c r="G12">
-        <v>0.0007356906337101034</v>
+        <v>1.081248522340914</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01552145059712373</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6176535744391458</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4756953460253968</v>
       </c>
       <c r="L12">
-        <v>0.561532086543437</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.572156637470755</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.125860078395817</v>
+        <v>5.708482626933062</v>
       </c>
       <c r="C13">
-        <v>0.8581131863548421</v>
+        <v>1.094396415646457</v>
       </c>
       <c r="D13">
-        <v>0.5771727160819466</v>
+        <v>0.04132956446584046</v>
       </c>
       <c r="E13">
-        <v>0.04423478975107997</v>
+        <v>0.03101853363567209</v>
       </c>
       <c r="F13">
-        <v>11.03543598464972</v>
+        <v>1.190575792502671</v>
       </c>
       <c r="G13">
-        <v>0.0007365241682667986</v>
+        <v>1.076938781803079</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01516814630477015</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6160907033449519</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4752074907623296</v>
       </c>
       <c r="L13">
-        <v>0.5580610395705747</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5689930865041788</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.995621828429819</v>
+        <v>5.607359461937051</v>
       </c>
       <c r="C14">
-        <v>0.8394103757088942</v>
+        <v>1.076669459771267</v>
       </c>
       <c r="D14">
-        <v>0.5671366622180756</v>
+        <v>0.04106877617818583</v>
       </c>
       <c r="E14">
-        <v>0.04376017564485224</v>
+        <v>0.03099650867515358</v>
       </c>
       <c r="F14">
-        <v>10.8234449782671</v>
+        <v>1.172153635465307</v>
       </c>
       <c r="G14">
-        <v>0.0007392381119766891</v>
+        <v>1.059864511981431</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01417299803448557</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6094655134934044</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4717166565108215</v>
       </c>
       <c r="L14">
-        <v>0.546810717145263</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5589090386983173</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.916469564291219</v>
+        <v>5.545413764833825</v>
       </c>
       <c r="C15">
-        <v>0.8280492961488619</v>
+        <v>1.066794660914496</v>
       </c>
       <c r="D15">
-        <v>0.5610382300058063</v>
+        <v>0.04098021209148328</v>
       </c>
       <c r="E15">
-        <v>0.04347206749906718</v>
+        <v>0.03095177577765895</v>
       </c>
       <c r="F15">
-        <v>10.6945695759473</v>
+        <v>1.159495017257555</v>
       </c>
       <c r="G15">
-        <v>0.0007408973426674968</v>
+        <v>1.047875413594127</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0136553218675548</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6046324778538121</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.468612650054439</v>
       </c>
       <c r="L15">
-        <v>0.5399715069707014</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5528570674334219</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.471707890944913</v>
+        <v>5.191589075844206</v>
       </c>
       <c r="C16">
-        <v>0.7642790940382156</v>
+        <v>1.004374762444712</v>
       </c>
       <c r="D16">
-        <v>0.5267832338571168</v>
+        <v>0.04002931269704391</v>
       </c>
       <c r="E16">
-        <v>0.04185803120647691</v>
+        <v>0.03091110189810298</v>
       </c>
       <c r="F16">
-        <v>9.969865738612583</v>
+        <v>1.096807806572542</v>
       </c>
       <c r="G16">
-        <v>0.00075036685998723</v>
+        <v>0.9900256402507068</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01051979349253962</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5824502483992262</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4575154945884776</v>
       </c>
       <c r="L16">
-        <v>0.5015172032696142</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5177180931250831</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.206023456485525</v>
+        <v>4.975168729787129</v>
       </c>
       <c r="C17">
-        <v>0.726230364372384</v>
+        <v>0.9663119174170731</v>
       </c>
       <c r="D17">
-        <v>0.5063292057355682</v>
+        <v>0.03945048416331076</v>
       </c>
       <c r="E17">
-        <v>0.04089791623418471</v>
+        <v>0.03089705348420324</v>
       </c>
       <c r="F17">
-        <v>9.53649856580077</v>
+        <v>1.059029846168968</v>
       </c>
       <c r="G17">
-        <v>0.0007561507146266318</v>
+        <v>0.9552210599116506</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008838077119425414</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5692030845865048</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4510501319781284</v>
       </c>
       <c r="L17">
-        <v>0.4785277065732885</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.4963573217820425</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.0555796239762</v>
+        <v>4.851037364961087</v>
       </c>
       <c r="C18">
-        <v>0.7046962587997712</v>
+        <v>0.9420577170799049</v>
       </c>
       <c r="D18">
-        <v>0.4947493547049362</v>
+        <v>0.03894079357159086</v>
       </c>
       <c r="E18">
-        <v>0.04035564077301323</v>
+        <v>0.03097445595522963</v>
       </c>
       <c r="F18">
-        <v>9.290946821376252</v>
+        <v>1.041155270435155</v>
       </c>
       <c r="G18">
-        <v>0.0007594715065904826</v>
+        <v>0.9394543278312995</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007738805256948922</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.563748355257772</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4499705720503187</v>
       </c>
       <c r="L18">
-        <v>0.4655043796284559</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.4838615258249206</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.005026190533044</v>
+        <v>4.808938652922336</v>
       </c>
       <c r="C19">
-        <v>0.6974615787444236</v>
+        <v>0.9357395127672987</v>
       </c>
       <c r="D19">
-        <v>0.4908584922092416</v>
+        <v>0.03890594733291763</v>
       </c>
       <c r="E19">
-        <v>0.04017365078421697</v>
+        <v>0.03093836183867005</v>
       </c>
       <c r="F19">
-        <v>9.20840813671802</v>
+        <v>1.032349803841001</v>
       </c>
       <c r="G19">
-        <v>0.0007605951502845077</v>
+        <v>0.931056978094432</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007544058691268063</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5603493742880516</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4476804854345673</v>
       </c>
       <c r="L19">
-        <v>0.4611273237787827</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4798557078521242</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.234055086508704</v>
+        <v>4.998195333961235</v>
       </c>
       <c r="C20">
-        <v>0.7302435161490735</v>
+        <v>0.9701637680294368</v>
       </c>
       <c r="D20">
-        <v>0.5084869992088557</v>
+        <v>0.03949788184945291</v>
       </c>
       <c r="E20">
-        <v>0.04099906852887436</v>
+        <v>0.03090453898675616</v>
       </c>
       <c r="F20">
-        <v>9.582238536422295</v>
+        <v>1.063310839407379</v>
       </c>
       <c r="G20">
-        <v>0.0007555356994065043</v>
+        <v>0.9592164082908567</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0089911440624455</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5707600686811105</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.451923445878613</v>
       </c>
       <c r="L20">
-        <v>0.4809538650616076</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4986023528458787</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.033744456367799</v>
+        <v>5.636879170077577</v>
       </c>
       <c r="C21">
-        <v>0.8448837596969554</v>
+        <v>1.084614315981895</v>
       </c>
       <c r="D21">
-        <v>0.5700741509503473</v>
+        <v>0.04134696434034879</v>
       </c>
       <c r="E21">
-        <v>0.04389903063613687</v>
+        <v>0.03091176547231278</v>
       </c>
       <c r="F21">
-        <v>10.88550583400433</v>
+        <v>1.173493665208909</v>
       </c>
       <c r="G21">
-        <v>0.0007384416380858954</v>
+        <v>1.060363733645602</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01466888367118102</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6091232699797757</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4699176708858275</v>
       </c>
       <c r="L21">
-        <v>0.5501042412348198</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5621770611322177</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.583518241815796</v>
+        <v>6.056893481890484</v>
       </c>
       <c r="C22">
-        <v>0.9239353952515899</v>
+        <v>1.15677015351406</v>
       </c>
       <c r="D22">
-        <v>0.6124565344615007</v>
+        <v>0.04231512541916516</v>
       </c>
       <c r="E22">
-        <v>0.04590797515084155</v>
+        <v>0.03106915594676174</v>
       </c>
       <c r="F22">
-        <v>11.77976820150826</v>
+        <v>1.253062572716075</v>
       </c>
       <c r="G22">
-        <v>0.0007271386806843316</v>
+        <v>1.134616948190995</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01895744412792766</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6383611650157945</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4864556343090882</v>
       </c>
       <c r="L22">
-        <v>0.5975635143820455</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6040313171626366</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.287278360120752</v>
+        <v>5.832692358747238</v>
       </c>
       <c r="C23">
-        <v>0.8813103805285039</v>
+        <v>1.114868626604135</v>
       </c>
       <c r="D23">
-        <v>0.5896143755321646</v>
+        <v>0.04155384256014827</v>
       </c>
       <c r="E23">
-        <v>0.04482398079061412</v>
+        <v>0.03109155107106432</v>
       </c>
       <c r="F23">
-        <v>11.29807258623367</v>
+        <v>1.215261149541732</v>
       </c>
       <c r="G23">
-        <v>0.000733187582782594</v>
+        <v>1.100187878259618</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01635570382990714</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6253879848151769</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4809171320905037</v>
       </c>
       <c r="L23">
-        <v>0.5719994264957364</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5812513557882681</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.221374878727033</v>
+        <v>4.988077576958062</v>
       </c>
       <c r="C24">
-        <v>0.7284281195086919</v>
+        <v>0.9632602877627221</v>
       </c>
       <c r="D24">
-        <v>0.5075109068247059</v>
+        <v>0.03909963566871966</v>
       </c>
       <c r="E24">
-        <v>0.04095330759458982</v>
+        <v>0.03107416797181095</v>
       </c>
       <c r="F24">
-        <v>9.561548389210003</v>
+        <v>1.069049398540798</v>
       </c>
       <c r="G24">
-        <v>0.0007558137608540354</v>
+        <v>0.9659265016204017</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00850735244312073</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5743784285132989</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4568753826045011</v>
       </c>
       <c r="L24">
-        <v>0.4798564006491972</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4970006234475051</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.160234022725319</v>
+        <v>4.08490313426438</v>
       </c>
       <c r="C25">
-        <v>0.5765920289094026</v>
+        <v>0.8024413178465295</v>
       </c>
       <c r="D25">
-        <v>0.4258468636914756</v>
+        <v>0.03649998529728293</v>
       </c>
       <c r="E25">
-        <v>0.03715046589648452</v>
+        <v>0.03121112406894788</v>
       </c>
       <c r="F25">
-        <v>7.827000812102938</v>
+        <v>0.9204775161729088</v>
       </c>
       <c r="G25">
-        <v>0.0007800199294693061</v>
+        <v>0.8303314369393888</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003097568737674194</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5242793990313288</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4356734841324581</v>
       </c>
       <c r="L25">
-        <v>0.3879294792231462</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4086352175313976</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.424579591429051</v>
+        <v>3.428191583770342</v>
       </c>
       <c r="C2">
-        <v>0.6778937656191033</v>
+        <v>0.7354424058395637</v>
       </c>
       <c r="D2">
-        <v>0.03406646444391725</v>
+        <v>0.03897400692529018</v>
       </c>
       <c r="E2">
-        <v>0.03170476343438988</v>
+        <v>0.02794386082822342</v>
       </c>
       <c r="F2">
-        <v>0.8292145714928125</v>
+        <v>0.7250000663958645</v>
       </c>
       <c r="G2">
-        <v>0.7499548865048808</v>
+        <v>0.6136841357940881</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0006591964342348433</v>
+        <v>0.0008800450089845313</v>
       </c>
       <c r="J2">
-        <v>0.4975871586267857</v>
+        <v>0.4812515220987308</v>
       </c>
       <c r="K2">
-        <v>0.4317884239759593</v>
+        <v>0.3539765415079508</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1842304523863554</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09205394777110598</v>
       </c>
       <c r="N2">
-        <v>0.3443634282443071</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3532024108051814</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.978482358648478</v>
+        <v>2.983926350726392</v>
       </c>
       <c r="C3">
-        <v>0.5987215279224927</v>
+        <v>0.6429153885567018</v>
       </c>
       <c r="D3">
-        <v>0.03275787119195783</v>
+        <v>0.03621860507298535</v>
       </c>
       <c r="E3">
-        <v>0.03195405316309152</v>
+        <v>0.02845285470481951</v>
       </c>
       <c r="F3">
-        <v>0.7638110224396684</v>
+        <v>0.6749488258317982</v>
       </c>
       <c r="G3">
-        <v>0.6911650099901863</v>
+        <v>0.5722734362957169</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004668912507073131</v>
+        <v>0.0005044063574168867</v>
       </c>
       <c r="J3">
-        <v>0.4775111411087636</v>
+        <v>0.4652999258498909</v>
       </c>
       <c r="K3">
-        <v>0.4261839479446188</v>
+        <v>0.3565482421635728</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1894661643796525</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0891463163211661</v>
       </c>
       <c r="N3">
-        <v>0.3021737296633802</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3097407898545015</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.705062824404934</v>
+        <v>2.711221693279185</v>
       </c>
       <c r="C4">
-        <v>0.5504986888379335</v>
+        <v>0.5866549085940562</v>
       </c>
       <c r="D4">
-        <v>0.03197043131095612</v>
+        <v>0.03455743154276192</v>
       </c>
       <c r="E4">
-        <v>0.03213522846779249</v>
+        <v>0.02879033576929224</v>
       </c>
       <c r="F4">
-        <v>0.7248540104867729</v>
+        <v>0.6450143295142112</v>
       </c>
       <c r="G4">
-        <v>0.6562355515651745</v>
+        <v>0.5478644276230398</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008610758548890374</v>
+        <v>0.0006595175464307879</v>
       </c>
       <c r="J4">
-        <v>0.4658920207358221</v>
+        <v>0.4556829056010656</v>
       </c>
       <c r="K4">
-        <v>0.4234044813563962</v>
+        <v>0.358561648334998</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1926908982748543</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0882226321817523</v>
       </c>
       <c r="N4">
-        <v>0.2766396168803169</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2834127500762236</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.593697533815146</v>
+        <v>2.600055434546562</v>
       </c>
       <c r="C5">
-        <v>0.531720181726314</v>
+        <v>0.5646297268518197</v>
       </c>
       <c r="D5">
-        <v>0.03170780909711013</v>
+        <v>0.03394841216899991</v>
       </c>
       <c r="E5">
-        <v>0.03218721626691412</v>
+        <v>0.02891109022935368</v>
       </c>
       <c r="F5">
-        <v>0.7080320325118237</v>
+        <v>0.6319448151322149</v>
       </c>
       <c r="G5">
-        <v>0.6409094523454684</v>
+        <v>0.537006702043314</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001212692184997088</v>
+        <v>0.0008957481620717189</v>
       </c>
       <c r="J5">
-        <v>0.4606260178172477</v>
+        <v>0.4511938331213941</v>
       </c>
       <c r="K5">
-        <v>0.4215541392220956</v>
+        <v>0.3587830447596545</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1936768495721566</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0878592437439405</v>
       </c>
       <c r="N5">
-        <v>0.26641208085627</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2728524606337146</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.575178174393727</v>
+        <v>2.581563697929823</v>
       </c>
       <c r="C6">
-        <v>0.5295742838503372</v>
+        <v>0.5619321629284002</v>
       </c>
       <c r="D6">
-        <v>0.031731505209315</v>
+        <v>0.03392224167704683</v>
       </c>
       <c r="E6">
-        <v>0.03216120793427635</v>
+        <v>0.028903568319115</v>
       </c>
       <c r="F6">
-        <v>0.703760263667057</v>
+        <v>0.6284997049334464</v>
       </c>
       <c r="G6">
-        <v>0.636719371634598</v>
+        <v>0.5338219508734028</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001371806421121669</v>
+        <v>0.001049640477605251</v>
       </c>
       <c r="J6">
-        <v>0.4589096606180902</v>
+        <v>0.4497058937849658</v>
       </c>
       <c r="K6">
-        <v>0.4201904174013436</v>
+        <v>0.3579713471520094</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1934388597153749</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08757000295948814</v>
       </c>
       <c r="N6">
-        <v>0.2648330634941374</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2712095996313053</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.703470538359795</v>
+        <v>2.709586683318662</v>
       </c>
       <c r="C7">
-        <v>0.5528964188854104</v>
+        <v>0.5881455818533823</v>
       </c>
       <c r="D7">
-        <v>0.03215114892929805</v>
+        <v>0.03488408564054524</v>
       </c>
       <c r="E7">
-        <v>0.03204032114787569</v>
+        <v>0.02872981836309574</v>
       </c>
       <c r="F7">
-        <v>0.7205382490706711</v>
+        <v>0.639233362958791</v>
       </c>
       <c r="G7">
-        <v>0.6514848890963805</v>
+        <v>0.5467362565728564</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00110288085818766</v>
+        <v>0.0009424154209067837</v>
       </c>
       <c r="J7">
-        <v>0.463493040219447</v>
+        <v>0.4470161773190711</v>
       </c>
       <c r="K7">
-        <v>0.4204673729649251</v>
+        <v>0.3552318406274644</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1911669441731121</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0872437508790842</v>
       </c>
       <c r="N7">
-        <v>0.2768140213794936</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2834746249993287</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.270493974712224</v>
+        <v>3.274658684920553</v>
       </c>
       <c r="C8">
-        <v>0.6540578575413747</v>
+        <v>0.7041491534538693</v>
       </c>
       <c r="D8">
-        <v>0.03386164376045286</v>
+        <v>0.03874579695680325</v>
       </c>
       <c r="E8">
-        <v>0.03165919009805851</v>
+        <v>0.02806291469648947</v>
       </c>
       <c r="F8">
-        <v>0.8009685673878977</v>
+        <v>0.696001108932137</v>
       </c>
       <c r="G8">
-        <v>0.723391151121163</v>
+        <v>0.6036357056255497</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007529647471509193</v>
+        <v>0.0009875611549823304</v>
       </c>
       <c r="J8">
-        <v>0.4874293387249224</v>
+        <v>0.4515005396313967</v>
       </c>
       <c r="K8">
-        <v>0.4258648119436046</v>
+        <v>0.3484632738384441</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1833243069843498</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08882315049894984</v>
       </c>
       <c r="N8">
-        <v>0.3301488020388064</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3382325935890975</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.388565989796177</v>
+        <v>4.385256378928943</v>
       </c>
       <c r="C9">
-        <v>0.8513941726277494</v>
+        <v>0.9348991460628042</v>
       </c>
       <c r="D9">
-        <v>0.03701605221431237</v>
+        <v>0.04572075626654737</v>
       </c>
       <c r="E9">
-        <v>0.0313135924730279</v>
+        <v>0.02704180456913807</v>
       </c>
       <c r="F9">
-        <v>0.9768430213880919</v>
+        <v>0.8284295889604607</v>
       </c>
       <c r="G9">
-        <v>0.8831379134168742</v>
+        <v>0.7209517368939515</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004205461219671136</v>
+        <v>0.004017269056560302</v>
       </c>
       <c r="J9">
-        <v>0.5447422435674412</v>
+        <v>0.4889059424004216</v>
       </c>
       <c r="K9">
-        <v>0.4474351167093573</v>
+        <v>0.346722211835452</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1714627740450787</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1014648612525662</v>
       </c>
       <c r="N9">
-        <v>0.4375439680584918</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4486148896961595</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.216765348811066</v>
+        <v>5.204406906635995</v>
       </c>
       <c r="C10">
-        <v>1.001104917096086</v>
+        <v>1.10480536169672</v>
       </c>
       <c r="D10">
-        <v>0.03953921991427123</v>
+        <v>0.0520123676300841</v>
       </c>
       <c r="E10">
-        <v>0.03116897223439707</v>
+        <v>0.02648090491229027</v>
       </c>
       <c r="F10">
-        <v>1.112503220554359</v>
+        <v>0.9176878464217566</v>
       </c>
       <c r="G10">
-        <v>1.006631512898096</v>
+        <v>0.8298638182734805</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01018083249022528</v>
+        <v>0.008799867072087686</v>
       </c>
       <c r="J10">
-        <v>0.5903701329084754</v>
+        <v>0.4803051565622525</v>
       </c>
       <c r="K10">
-        <v>0.4661809286544454</v>
+        <v>0.3417362594430671</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1605440760966701</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1128937775816432</v>
       </c>
       <c r="N10">
-        <v>0.519299842433</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5318381635954665</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.595510845820911</v>
+        <v>5.577390971265743</v>
       </c>
       <c r="C11">
-        <v>1.074770489419507</v>
+        <v>1.17868514360697</v>
       </c>
       <c r="D11">
-        <v>0.04105111806143924</v>
+        <v>0.05693252743873956</v>
       </c>
       <c r="E11">
-        <v>0.03098821729864909</v>
+        <v>0.02630813379713093</v>
       </c>
       <c r="F11">
-        <v>1.16974361675949</v>
+        <v>0.9330100316641818</v>
       </c>
       <c r="G11">
-        <v>1.057583991987741</v>
+        <v>0.9063742131748711</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01407172029609871</v>
+        <v>0.01190321181447906</v>
       </c>
       <c r="J11">
-        <v>0.6085474289233588</v>
+        <v>0.4151037497546213</v>
       </c>
       <c r="K11">
-        <v>0.471131103547151</v>
+        <v>0.3273193690808824</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1512995747153596</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1137950790449693</v>
       </c>
       <c r="N11">
-        <v>0.557749709526945</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5698752401012968</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.739476160795789</v>
+        <v>5.718898240404769</v>
       </c>
       <c r="C12">
-        <v>1.100416126125623</v>
+        <v>1.203272530789548</v>
       </c>
       <c r="D12">
-        <v>0.04145201095217033</v>
+        <v>0.05882760811930154</v>
       </c>
       <c r="E12">
-        <v>0.03100646048901901</v>
+        <v>0.02633425705805337</v>
       </c>
       <c r="F12">
-        <v>1.195392393606909</v>
+        <v>0.9393547424313198</v>
       </c>
       <c r="G12">
-        <v>1.081248522340914</v>
+        <v>0.9433934047223715</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01552145059712373</v>
+        <v>0.0129510365734502</v>
       </c>
       <c r="J12">
-        <v>0.6176535744391458</v>
+        <v>0.3868137482723881</v>
       </c>
       <c r="K12">
-        <v>0.4756953460253968</v>
+        <v>0.3226941183827066</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1481373060713835</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1145158320849937</v>
       </c>
       <c r="N12">
-        <v>0.572156637470755</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.5840036222084422</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.708482626933062</v>
+        <v>5.688440722342477</v>
       </c>
       <c r="C13">
-        <v>1.094396415646457</v>
+        <v>1.1975391856393</v>
       </c>
       <c r="D13">
-        <v>0.04132956446584046</v>
+        <v>0.05836361488582753</v>
       </c>
       <c r="E13">
-        <v>0.03101853363567209</v>
+        <v>0.02633971948519509</v>
       </c>
       <c r="F13">
-        <v>1.190575792502671</v>
+        <v>0.9386812392173312</v>
       </c>
       <c r="G13">
-        <v>1.076938781803079</v>
+        <v>0.9358813628125233</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01516814630477015</v>
+        <v>0.01267626237976405</v>
       </c>
       <c r="J13">
-        <v>0.6160907033449519</v>
+        <v>0.3933616673046032</v>
       </c>
       <c r="K13">
-        <v>0.4752074907623296</v>
+        <v>0.3240923791951786</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1489531874635546</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1145256753228772</v>
       </c>
       <c r="N13">
-        <v>0.5689930865041788</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.5809107319829678</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.607359461937051</v>
+        <v>5.58904053231754</v>
       </c>
       <c r="C14">
-        <v>1.076669459771267</v>
+        <v>1.180522821963677</v>
       </c>
       <c r="D14">
-        <v>0.04106877617818583</v>
+        <v>0.05706469880877307</v>
       </c>
       <c r="E14">
-        <v>0.03099650867515358</v>
+        <v>0.02631494956547087</v>
       </c>
       <c r="F14">
-        <v>1.172153635465307</v>
+        <v>0.9338302513019698</v>
       </c>
       <c r="G14">
-        <v>1.059864511981431</v>
+        <v>0.9096090260995879</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01417299803448557</v>
+        <v>0.01196805108759236</v>
       </c>
       <c r="J14">
-        <v>0.6094655134934044</v>
+        <v>0.4129831471888963</v>
       </c>
       <c r="K14">
-        <v>0.4717166565108215</v>
+        <v>0.3271122104088704</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1510980046242132</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1139249829450257</v>
       </c>
       <c r="N14">
-        <v>0.5589090386983173</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.5710163282319343</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.545413764833825</v>
+        <v>5.528125569284384</v>
       </c>
       <c r="C15">
-        <v>1.066794660914496</v>
+        <v>1.170921682475409</v>
       </c>
       <c r="D15">
-        <v>0.04098021209148328</v>
+        <v>0.0563874093801715</v>
       </c>
       <c r="E15">
-        <v>0.03095177577765895</v>
+        <v>0.02627935766840039</v>
       </c>
       <c r="F15">
-        <v>1.159495017257555</v>
+        <v>0.9293813513418456</v>
       </c>
       <c r="G15">
-        <v>1.047875413594127</v>
+        <v>0.8928267309520095</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0136553218675548</v>
+        <v>0.01164006046193222</v>
       </c>
       <c r="J15">
-        <v>0.6046324778538121</v>
+        <v>0.4238386101641254</v>
       </c>
       <c r="K15">
-        <v>0.468612650054439</v>
+        <v>0.328115448761082</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1521249422371937</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1132159575368661</v>
       </c>
       <c r="N15">
-        <v>0.5528570674334219</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.5650535085335946</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.191589075844206</v>
+        <v>5.179642534460868</v>
       </c>
       <c r="C16">
-        <v>1.004374762444712</v>
+        <v>1.107858974902058</v>
       </c>
       <c r="D16">
-        <v>0.04002931269704391</v>
+        <v>0.05241864767380378</v>
       </c>
       <c r="E16">
-        <v>0.03091110189810298</v>
+        <v>0.02629020398517401</v>
       </c>
       <c r="F16">
-        <v>1.096807806572542</v>
+        <v>0.9064540065278521</v>
       </c>
       <c r="G16">
-        <v>0.9900256402507068</v>
+        <v>0.8144310852984233</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01051979349253962</v>
+        <v>0.00934758284609849</v>
       </c>
       <c r="J16">
-        <v>0.5824502483992262</v>
+        <v>0.4785317371240438</v>
       </c>
       <c r="K16">
-        <v>0.4575154945884776</v>
+        <v>0.336354602878643</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1589098982769883</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1103101640873625</v>
       </c>
       <c r="N16">
-        <v>0.5177180931250831</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.5301974228663227</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.975168729787129</v>
+        <v>4.966071566363439</v>
       </c>
       <c r="C17">
-        <v>0.9663119174170731</v>
+        <v>1.067444909394908</v>
       </c>
       <c r="D17">
-        <v>0.03945048416331076</v>
+        <v>0.05036091154646272</v>
       </c>
       <c r="E17">
-        <v>0.03089705348420324</v>
+        <v>0.02634477860810858</v>
       </c>
       <c r="F17">
-        <v>1.059029846168968</v>
+        <v>0.8882367398652065</v>
       </c>
       <c r="G17">
-        <v>0.9552210599116506</v>
+        <v>0.7740059593548239</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008838077119425414</v>
+        <v>0.008092636055213376</v>
       </c>
       <c r="J17">
-        <v>0.5692030845865048</v>
+        <v>0.5007820067726527</v>
       </c>
       <c r="K17">
-        <v>0.4510501319781284</v>
+        <v>0.3396169816220471</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1624618398798354</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1079397651848453</v>
       </c>
       <c r="N17">
-        <v>0.4963573217820425</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.5087745297042829</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.851037364961087</v>
+        <v>4.843414138241883</v>
       </c>
       <c r="C18">
-        <v>0.9420577170799049</v>
+        <v>1.041161284652588</v>
       </c>
       <c r="D18">
-        <v>0.03894079357159086</v>
+        <v>0.04909735458073783</v>
       </c>
       <c r="E18">
-        <v>0.03097445595522963</v>
+        <v>0.02645399150928895</v>
       </c>
       <c r="F18">
-        <v>1.041155270435155</v>
+        <v>0.8793027166101695</v>
       </c>
       <c r="G18">
-        <v>0.9394543278312995</v>
+        <v>0.7566399196308566</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007738805256948922</v>
+        <v>0.007152344434148361</v>
       </c>
       <c r="J18">
-        <v>0.563748355257772</v>
+        <v>0.5106975186170786</v>
       </c>
       <c r="K18">
-        <v>0.4499705720503187</v>
+        <v>0.3427427529357949</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1649630248395404</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1071174625546902</v>
       </c>
       <c r="N18">
-        <v>0.4838615258249206</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.4961820639852874</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.808938652922336</v>
+        <v>4.801804511689227</v>
       </c>
       <c r="C19">
-        <v>0.9357395127672987</v>
+        <v>1.03403449160362</v>
       </c>
       <c r="D19">
-        <v>0.03890594733291763</v>
+        <v>0.04884907182778164</v>
       </c>
       <c r="E19">
-        <v>0.03093836183867005</v>
+        <v>0.02644580535586716</v>
       </c>
       <c r="F19">
-        <v>1.032349803841001</v>
+        <v>0.8737013919548247</v>
       </c>
       <c r="G19">
-        <v>0.931056978094432</v>
+        <v>0.7486419931905743</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007544058691268063</v>
+        <v>0.00704919599690168</v>
       </c>
       <c r="J19">
-        <v>0.5603493742880516</v>
+        <v>0.5119611682921459</v>
       </c>
       <c r="K19">
-        <v>0.4476804854345673</v>
+        <v>0.3422269449003821</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1652348741767469</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.106235567115597</v>
       </c>
       <c r="N19">
-        <v>0.4798557078521242</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4921145706336887</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.998195333961235</v>
+        <v>4.988808787053756</v>
       </c>
       <c r="C20">
-        <v>0.9701637680294368</v>
+        <v>1.071619732013545</v>
       </c>
       <c r="D20">
-        <v>0.03949788184945291</v>
+        <v>0.05055031082859074</v>
       </c>
       <c r="E20">
-        <v>0.03090453898675616</v>
+        <v>0.0263421386953322</v>
       </c>
       <c r="F20">
-        <v>1.063310839407379</v>
+        <v>0.8905661509413818</v>
       </c>
       <c r="G20">
-        <v>0.9592164082908567</v>
+        <v>0.778295750184995</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0089911440624455</v>
+        <v>0.008198971292721957</v>
       </c>
       <c r="J20">
-        <v>0.5707600686811105</v>
+        <v>0.4990079364940243</v>
       </c>
       <c r="K20">
-        <v>0.451923445878613</v>
+        <v>0.3394850994083534</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1621612737099731</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1082713130263109</v>
       </c>
       <c r="N20">
-        <v>0.4986023528458787</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5110362807199209</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.636879170077577</v>
+        <v>5.617822674303227</v>
       </c>
       <c r="C21">
-        <v>1.084614315981895</v>
+        <v>1.185076979441135</v>
       </c>
       <c r="D21">
-        <v>0.04134696434034879</v>
+        <v>0.05826090413381024</v>
       </c>
       <c r="E21">
-        <v>0.03091176547231278</v>
+        <v>0.02631095791365468</v>
       </c>
       <c r="F21">
-        <v>1.173493665208909</v>
+        <v>0.9245667764295575</v>
       </c>
       <c r="G21">
-        <v>1.060363733645602</v>
+        <v>0.9245118248277748</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01466888367118102</v>
+        <v>0.01240830480909416</v>
       </c>
       <c r="J21">
-        <v>0.6091232699797757</v>
+        <v>0.3864381794752489</v>
       </c>
       <c r="K21">
-        <v>0.4699176708858275</v>
+        <v>0.3209279095060538</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1486537488623156</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1119080464739959</v>
       </c>
       <c r="N21">
-        <v>0.5621770611322177</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5738650300365435</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.056893481890484</v>
+        <v>6.030426584935242</v>
       </c>
       <c r="C22">
-        <v>1.15677015351406</v>
+        <v>1.255151134145308</v>
       </c>
       <c r="D22">
-        <v>0.04231512541916516</v>
+        <v>0.06344745576264899</v>
       </c>
       <c r="E22">
-        <v>0.03106915594676174</v>
+        <v>0.02646178987016157</v>
       </c>
       <c r="F22">
-        <v>1.253062572716075</v>
+        <v>0.9493019189983585</v>
       </c>
       <c r="G22">
-        <v>1.134616948190995</v>
+        <v>1.034745909727562</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01895744412792766</v>
+        <v>0.01538828605078724</v>
       </c>
       <c r="J22">
-        <v>0.6383611650157945</v>
+        <v>0.3185568555233971</v>
       </c>
       <c r="K22">
-        <v>0.4864556343090882</v>
+        <v>0.3109848996850317</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1407570084435754</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1155268995296659</v>
       </c>
       <c r="N22">
-        <v>0.6040313171626366</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6149964506960401</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.832692358747238</v>
+        <v>5.810430852270088</v>
       </c>
       <c r="C23">
-        <v>1.114868626604135</v>
+        <v>1.216743292800345</v>
       </c>
       <c r="D23">
-        <v>0.04155384256014827</v>
+        <v>0.05992555234633556</v>
       </c>
       <c r="E23">
-        <v>0.03109155107106432</v>
+        <v>0.02641558516075992</v>
       </c>
       <c r="F23">
-        <v>1.215261149541732</v>
+        <v>0.945330263788108</v>
       </c>
       <c r="G23">
-        <v>1.100187878259618</v>
+        <v>0.971750676367364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01635570382990714</v>
+        <v>0.01346391693707272</v>
       </c>
       <c r="J23">
-        <v>0.6253879848151769</v>
+        <v>0.3685664560624531</v>
       </c>
       <c r="K23">
-        <v>0.4809171320905037</v>
+        <v>0.3209873835343089</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1465388127463036</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1155299315780773</v>
       </c>
       <c r="N23">
-        <v>0.5812513557882681</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5928953371821848</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.988077576958062</v>
+        <v>4.978781599330148</v>
       </c>
       <c r="C24">
-        <v>0.9632602877627221</v>
+        <v>1.064593710464493</v>
       </c>
       <c r="D24">
-        <v>0.03909963566871966</v>
+        <v>0.05002540990899718</v>
       </c>
       <c r="E24">
-        <v>0.03107416797181095</v>
+        <v>0.02647462234943809</v>
       </c>
       <c r="F24">
-        <v>1.069049398540798</v>
+        <v>0.8958968609790077</v>
       </c>
       <c r="G24">
-        <v>0.9659265016204017</v>
+        <v>0.7833584731463503</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.00850735244312073</v>
+        <v>0.007624670703377134</v>
       </c>
       <c r="J24">
-        <v>0.5743784285132989</v>
+        <v>0.5033065845926927</v>
       </c>
       <c r="K24">
-        <v>0.4568753826045011</v>
+        <v>0.3435509548782036</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1637443442695599</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1096983320092164</v>
       </c>
       <c r="N24">
-        <v>0.4970006234475051</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5094699706312724</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.08490313426438</v>
+        <v>4.084219068214281</v>
       </c>
       <c r="C25">
-        <v>0.8024413178465295</v>
+        <v>0.8779601911589623</v>
       </c>
       <c r="D25">
-        <v>0.03649998529728293</v>
+        <v>0.04401187866616851</v>
       </c>
       <c r="E25">
-        <v>0.03121112406894788</v>
+        <v>0.0271437842069977</v>
       </c>
       <c r="F25">
-        <v>0.9204775161729088</v>
+        <v>0.7884099954853383</v>
       </c>
       <c r="G25">
-        <v>0.8303314369393888</v>
+        <v>0.6771047716990353</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003097568737674194</v>
+        <v>0.003255976730733856</v>
       </c>
       <c r="J25">
-        <v>0.5242793990313288</v>
+        <v>0.4842345909164152</v>
       </c>
       <c r="K25">
-        <v>0.4356734841324581</v>
+        <v>0.3441138611797001</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1736346703633771</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09628542175641286</v>
       </c>
       <c r="N25">
-        <v>0.4086352175313976</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4190084050567862</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
